--- a/Safety courses 2025 Jan to june 2025.xlsx
+++ b/Safety courses 2025 Jan to june 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\work data\muhannad.aljesri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandboxShared\pico\employee-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E8FCC-DFD4-4670-BE33-C506F24D42D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA57519-301D-4649-BF07-05C987BEB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Courses- Jan to Jun 2025" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="133">
   <si>
     <t>Date of Course</t>
   </si>
@@ -461,12 +461,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -509,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -533,6 +539,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,27 +849,27 @@
   <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>123</v>
@@ -878,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -898,7 +907,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -918,7 +927,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -938,14 +947,14 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -958,7 +967,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -978,7 +987,7 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1018,14 +1027,14 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1038,7 +1047,7 @@
         <v>46538</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>46538</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>46538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1098,14 +1107,14 @@
         <v>46538</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1118,7 +1127,7 @@
         <v>46541</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>46541</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>46541</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1178,14 +1187,14 @@
         <v>46541</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1198,7 +1207,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1258,14 +1267,14 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1278,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1318,14 +1327,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1338,14 +1347,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1358,14 +1367,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1378,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1458,14 +1467,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1481,14 +1490,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1501,14 +1510,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1521,7 +1530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1561,14 +1570,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1581,14 +1590,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1601,14 +1610,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1621,14 +1630,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -1641,7 +1650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1681,14 +1690,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -1701,14 +1710,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1721,14 +1730,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -1741,7 +1750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1801,14 +1810,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -1821,14 +1830,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -1841,14 +1850,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -1861,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -1901,14 +1910,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -1921,7 +1930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -1981,14 +1990,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2001,7 +2010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -2041,14 +2050,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -2061,14 +2070,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2081,14 +2090,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -2101,7 +2110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2161,14 +2170,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2181,7 +2190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -2221,14 +2230,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2241,7 +2250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -2281,7 +2290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -2301,14 +2310,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -2321,14 +2330,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -2341,14 +2350,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -2361,14 +2370,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -2381,7 +2390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -2441,14 +2450,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -2461,7 +2470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -2501,14 +2510,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -2521,7 +2530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -2561,14 +2570,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -2581,7 +2590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -2601,7 +2610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -2621,14 +2630,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>88</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -2641,7 +2650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -2701,14 +2710,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -2721,14 +2730,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -2741,7 +2750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -2761,14 +2770,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2781,14 +2790,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -2801,14 +2810,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2821,7 +2830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -2861,14 +2870,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -2881,7 +2890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -2961,14 +2970,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -2981,7 +2990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -3021,14 +3030,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>108</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -3041,7 +3050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -3101,14 +3110,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
@@ -3121,14 +3130,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
@@ -3141,14 +3150,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -3161,14 +3170,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -3181,7 +3190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -3201,14 +3210,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -3221,14 +3230,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -3241,14 +3250,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>119</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -3261,14 +3270,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -3281,14 +3290,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -3301,7 +3310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -3321,14 +3330,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>123</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -3341,14 +3350,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>124</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -3361,7 +3370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -3381,14 +3390,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -3401,14 +3410,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>127</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D130" s="4" t="s">
@@ -3421,14 +3430,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>128</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D131" s="4" t="s">
@@ -3441,14 +3450,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>129</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -3461,14 +3470,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>130</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -3481,14 +3490,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -3501,7 +3510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -3521,14 +3530,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D136" s="4" t="s">
@@ -3541,14 +3550,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -3561,7 +3570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -3581,14 +3590,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D139" s="4" t="s">
@@ -3601,14 +3610,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D140" s="4" t="s">
@@ -3621,14 +3630,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -3641,7 +3650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -3661,14 +3670,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -3681,7 +3690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -3721,14 +3730,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D146" s="4" t="s">
@@ -3741,14 +3750,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="4" t="s">
@@ -3761,7 +3770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>145</v>
       </c>
@@ -3781,14 +3790,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D149" s="4" t="s">
@@ -3801,7 +3810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>147</v>
       </c>
@@ -3821,14 +3830,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D151" s="4" t="s">
@@ -3841,14 +3850,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D152" s="4" t="s">
@@ -3861,7 +3870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>150</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>151</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>152</v>
       </c>
@@ -3921,14 +3930,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -3941,7 +3950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>154</v>
       </c>
@@ -3961,14 +3970,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -3981,7 +3990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>156</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -4021,14 +4030,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D161" s="4" t="s">
@@ -4041,14 +4050,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D162" s="4" t="s">
@@ -4061,14 +4070,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D163" s="4" t="s">
@@ -4081,7 +4090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>161</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -4121,14 +4130,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D166" s="4" t="s">
@@ -4141,14 +4150,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D167" s="4" t="s">
@@ -4161,7 +4170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>165</v>
       </c>
@@ -4181,14 +4190,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -4201,7 +4210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>167</v>
       </c>
@@ -4221,14 +4230,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D171" s="4" t="s">
@@ -4241,7 +4250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>170</v>
       </c>
@@ -4281,14 +4290,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D174" s="4" t="s">
@@ -4301,14 +4310,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D175" s="4" t="s">
@@ -4321,7 +4330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>173</v>
       </c>
@@ -4341,7 +4350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -4361,14 +4370,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D178" s="4" t="s">
@@ -4381,7 +4390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -4401,14 +4410,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D180" s="4" t="s">
@@ -4421,7 +4430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -4441,14 +4450,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D182" s="4" t="s">
@@ -4461,14 +4470,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D183" s="4" t="s">
@@ -4481,7 +4490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>181</v>
       </c>
@@ -4501,14 +4510,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D185" s="4" t="s">
@@ -4521,14 +4530,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D186" s="4" t="s">
@@ -4541,7 +4550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>184</v>
       </c>
@@ -4561,14 +4570,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D188" s="4" t="s">
@@ -4581,7 +4590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -4601,14 +4610,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D190" s="4" t="s">
@@ -4621,7 +4630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -4641,7 +4650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -4661,14 +4670,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D193" s="4" t="s">
@@ -4681,7 +4690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -4701,14 +4710,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -4721,7 +4730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -4761,14 +4770,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>195</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -4781,14 +4790,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D199" s="4" t="s">
@@ -4801,14 +4810,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>197</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D200" s="4" t="s">
@@ -4821,14 +4830,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D201" s="4" t="s">
@@ -4841,7 +4850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -4861,14 +4870,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>200</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D203" s="4" t="s">
@@ -4881,14 +4890,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>201</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D204" s="4" t="s">
@@ -4901,14 +4910,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>202</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D205" s="4" t="s">
@@ -4921,14 +4930,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>203</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D206" s="4" t="s">
@@ -4941,14 +4950,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>204</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D207" s="4" t="s">
@@ -4961,14 +4970,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>205</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D208" s="4" t="s">
@@ -4981,7 +4990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -5001,14 +5010,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>207</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D210" s="4" t="s">
@@ -5021,14 +5030,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>208</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D211" s="4" t="s">
@@ -5041,14 +5050,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>209</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D212" s="4" t="s">
@@ -5061,7 +5070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -5101,7 +5110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>212</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>213</v>
       </c>
@@ -5141,14 +5150,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>214</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D217" s="4" t="s">
@@ -5161,7 +5170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>215</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>216</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -5221,14 +5230,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>218</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D221" s="4" t="s">
@@ -5241,14 +5250,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>219</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D222" s="4" t="s">
@@ -5261,14 +5270,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>220</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D223" s="4" t="s">
@@ -5281,14 +5290,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>221</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D224" s="4" t="s">
@@ -5301,14 +5310,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>222</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D225" s="4" t="s">
@@ -5321,14 +5330,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>223</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D226" s="4" t="s">
@@ -5341,14 +5350,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>224</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D227" s="4" t="s">
@@ -5361,14 +5370,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>225</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D228" s="4" t="s">
@@ -5381,14 +5390,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>226</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -5401,14 +5410,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>227</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D230" s="4" t="s">
@@ -5421,14 +5430,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>228</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D231" s="4" t="s">
@@ -5441,14 +5450,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>229</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D232" s="4" t="s">
@@ -5461,7 +5470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>230</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>231</v>
       </c>
@@ -5501,7 +5510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>232</v>
       </c>
@@ -5521,14 +5530,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>233</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D236" s="4" t="s">
@@ -5541,7 +5550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>234</v>
       </c>
@@ -5561,14 +5570,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>235</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D238" s="4" t="s">
@@ -5581,7 +5590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>236</v>
       </c>
@@ -5601,7 +5610,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>237</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>238</v>
       </c>
@@ -5641,14 +5650,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>239</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D242" s="4" t="s">
@@ -5661,14 +5670,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>240</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D243" s="4" t="s">
@@ -5681,14 +5690,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>241</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D244" s="4" t="s">
@@ -5701,14 +5710,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>242</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D245" s="4" t="s">
@@ -5721,14 +5730,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>243</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D246" s="4" t="s">
@@ -5741,14 +5750,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>244</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D247" s="4" t="s">
@@ -5761,7 +5770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>245</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>246</v>
       </c>
@@ -5801,7 +5810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>247</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>248</v>
       </c>
@@ -5841,7 +5850,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>249</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>250</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:6" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B3:F253" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">

--- a/Safety courses 2025 Jan to june 2025.xlsx
+++ b/Safety courses 2025 Jan to june 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandboxShared\pico\employee-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA57519-301D-4649-BF07-05C987BEB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F19C25-23B4-43AB-81E6-D8C888A62421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -540,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -848,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N254"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2346,7 @@
       <c r="B76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -2357,7 +2366,7 @@
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -2737,7 +2746,7 @@
       <c r="B96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -2777,7 +2786,7 @@
       <c r="B98" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -3137,7 +3146,7 @@
       <c r="B116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
